--- a/trained_models_old_clean/MLP/epileptic_seizure_2C/results_table.xlsx
+++ b/trained_models_old_clean/MLP/epileptic_seizure_2C/results_table.xlsx
@@ -504,11 +504,11 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.833663933541544, 'beta_2': 0.1872573088827188, 'epsilon': 0.004763609386505701, 'learning_rate': 'constant', 'momentum': 0.34010682940846015, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6864476241430553}</t>
+          <t>{'beta_1': 0.27808502966658566, 'beta_2': 0.28966269009651957, 'epsilon': 0.006054472911401071, 'learning_rate': 'constant', 'momentum': 0.8459838734615371, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5871565138465034}</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>0.8139669660967835</v>
+        <v>0.8133874239350912</v>
       </c>
     </row>
     <row r="3">
@@ -540,11 +540,11 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7455682327730924, 'beta_2': 0.6994113130413, 'epsilon': 0.6646454584360839, 'learning_rate': 'adaptive', 'momentum': 0.18219764492303292, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5440711336888929}</t>
+          <t>{'beta_1': 0.8868131348915925, 'beta_2': 0.6379705684637716, 'epsilon': 0.42956678369024237, 'learning_rate': 'adaptive', 'momentum': 0.7701281241915822, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7861884994650608}</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>0.8933642422486235</v>
+        <v>0.7977397855694002</v>
       </c>
     </row>
     <row r="4">
@@ -576,11 +576,11 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.25121232420123485, 'beta_2': 0.9313630133329627, 'epsilon': 0.9920083131636438, 'learning_rate': 'invscaling', 'momentum': 0.5129053230612274, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.34769798866549106}</t>
+          <t>{'beta_1': 0.1076710352740956, 'beta_2': 0.23068500855019158, 'epsilon': 0.9444632775429541, 'learning_rate': 'invscaling', 'momentum': 0.3800345760236875, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6946109034163818}</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>0.918574326282237</v>
+        <v>0.7977397855694002</v>
       </c>
     </row>
     <row r="5">
@@ -612,11 +612,11 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.45370823451064424, 'beta_2': 0.3263741808864918, 'epsilon': 0.2325113851497778, 'learning_rate': 'constant', 'momentum': 0.8395129668196633, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.5130748631715455}</t>
+          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>0.9121993625036221</v>
+        <v>0.7977397855694002</v>
       </c>
     </row>
     <row r="6">
@@ -648,11 +648,11 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.4576806884327828, 'beta_2': 0.5903931811583613, 'epsilon': 0.856864921549361, 'learning_rate': 'adaptive', 'momentum': 0.09746868872548986, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.820767120701315}</t>
+          <t>{'beta_1': 0.9860054985757924, 'beta_2': 0.32708399264862975, 'epsilon': 0.7027269929350685, 'learning_rate': 'adaptive', 'momentum': 0.8552913450076486, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.23282429241813685}</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>0.8130976528542452</v>
+        <v>0.8151260504201681</v>
       </c>
     </row>
     <row r="7">
@@ -684,7 +684,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6520504287434347, 'beta_2': 0.939530597109095, 'epsilon': 0.271314566053248, 'learning_rate': 'invscaling', 'momentum': 0.8603830798416068, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5541987569863228}</t>
+          <t>{'beta_1': 0.7278521289720954, 'beta_2': 0.6070971084472071, 'epsilon': 0.34189906689640803, 'learning_rate': 'invscaling', 'momentum': 0.1103371248730024, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6257109065192588}</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -720,11 +720,11 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
+          <t>{'beta_1': 0.05111926735386998, 'beta_2': 0.10397468759931923, 'epsilon': 0.6138236250432934, 'learning_rate': 'adaptive', 'momentum': 0.7255735341014894, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7731100525054192}</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>0.9403071573456969</v>
+        <v>0.7977397855694002</v>
       </c>
     </row>
     <row r="9">
@@ -756,11 +756,11 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.6559484946101716, 'beta_2': 0.37346672868995284, 'epsilon': 0.7842813127380445, 'learning_rate': 'adaptive', 'momentum': 0.5082713750461963, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.44787809291973113}</t>
+          <t>{'beta_1': 0.22409271194576452, 'beta_2': 0.09774664000954002, 'epsilon': 0.8613293259042616, 'learning_rate': 'constant', 'momentum': 0.3436055031480987, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.4113724140379379}</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>0.7977397855694002</v>
+        <v>0.8614894233555491</v>
       </c>
     </row>
     <row r="10">
@@ -792,11 +792,11 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.5366329578207587, 'beta_2': 0.1999896983202477, 'epsilon': 0.6729796163150507, 'learning_rate': 'adaptive', 'momentum': 0.26668018193606735, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5283199925726499}</t>
+          <t>{'beta_1': 0.2683431280716183, 'beta_2': 0.6984100710983235, 'epsilon': 0.36388945426909586, 'learning_rate': 'invscaling', 'momentum': 0.22771359015896464, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6475524325933526}</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>0.8130976528542452</v>
+        <v>0.9035062300782382</v>
       </c>
     </row>
     <row r="11">
@@ -828,11 +828,11 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.33597764660620066, 'beta_2': 0.9071213120608984, 'epsilon': 0.8497722096751393, 'learning_rate': 'adaptive', 'momentum': 0.4512519614498419, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5618249437494095}</t>
+          <t>{'beta_1': 0.4601361519058461, 'beta_2': 0.9657710060996425, 'epsilon': 0.5341734662421768, 'learning_rate': 'adaptive', 'momentum': 0.6197720842759777, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.09884595187690437}</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>0.7977397855694002</v>
+        <v>0.8603303390321646</v>
       </c>
     </row>
     <row r="12">
@@ -864,11 +864,11 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.034075793806106, 'beta_2': 0.6638365496169778, 'epsilon': 0.8668194881681545, 'learning_rate': 'constant', 'momentum': 0.8757651744100993, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.08029435501699689}</t>
+          <t>{'beta_1': 0.8001098412276646, 'beta_2': 0.5199570020716536, 'epsilon': 0.6782006505888414, 'learning_rate': 'constant', 'momentum': 0.5820197920751071, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.5218483217500717}</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>0.8162851347435526</v>
+        <v>0.8977108084613156</v>
       </c>
     </row>
     <row r="13">
@@ -900,11 +900,11 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8689782231423873, 'beta_2': 0.20529362738332577, 'epsilon': 0.4244277865056076, 'learning_rate': 'invscaling', 'momentum': 0.0651214685488184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3240523212034009}</t>
+          <t>{'beta_1': 0.04322740576575398, 'beta_2': 0.7999597479776487, 'epsilon': 0.37705275503017843, 'learning_rate': 'constant', 'momentum': 0.47166406620494905, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.7243309792357789}</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>0.7977397855694002</v>
+        <v>0.8116487974500145</v>
       </c>
     </row>
     <row r="14">
@@ -936,11 +936,11 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.3482845967383244, 'beta_2': 0.10774183157942659, 'epsilon': 0.3882006204107153, 'learning_rate': 'constant', 'momentum': 0.08757177555718132, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.704412213094957}</t>
+          <t>{'beta_1': 0.12789284958036584, 'beta_2': 0.5826096381595377, 'epsilon': 0.002062570938847292, 'learning_rate': 'invscaling', 'momentum': 0.4124335494348642, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8937727558492876}</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>0.916256157635468</v>
+        <v>0.8565633149811649</v>
       </c>
     </row>
     <row r="15">
@@ -972,11 +972,11 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.8871556617122927, 'beta_2': 0.7079002294098619, 'epsilon': 0.277495899957879, 'learning_rate': 'constant', 'momentum': 0.5249704422542643, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.3335074657912753}</t>
+          <t>{'beta_1': 0.6917796472506498, 'beta_2': 0.5660348527523685, 'epsilon': 0.26512410144850596, 'learning_rate': 'adaptive', 'momentum': 0.09394051075844168, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9292961975762141}</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>0.9130686757461606</v>
+        <v>0.8116487974500145</v>
       </c>
     </row>
     <row r="16">
@@ -1008,11 +1008,11 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.318152772679051, 'beta_2': 0.8413259323375559, 'epsilon': 0.8579980526540874, 'learning_rate': 'constant', 'momentum': 0.566088448063145, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.30128918764272283}</t>
+          <t>{'beta_1': 0.38601463978525796, 'beta_2': 0.2891210581598599, 'epsilon': 0.1490866112283353, 'learning_rate': 'adaptive', 'momentum': 0.44286429476318045, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9107117463268657}</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>0.854534917415242</v>
+        <v>0.8646769052448565</v>
       </c>
     </row>
     <row r="17">
@@ -1044,11 +1044,11 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.530006677348219, 'beta_2': 0.9211893503054258, 'epsilon': 0.0894050504878672, 'learning_rate': 'invscaling', 'momentum': 0.15362753737206158, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9061718405949403}</t>
+          <t>{'beta_1': 0.9166219467725615, 'beta_2': 0.7569765358478867, 'epsilon': 0.061239381816285944, 'learning_rate': 'constant', 'momentum': 0.7915164945083926, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9786304632912902}</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>0.7977397855694002</v>
+        <v>0.8614894233555491</v>
       </c>
     </row>
     <row r="18">
@@ -1080,11 +1080,11 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7277370293981251, 'beta_2': 0.33601430464162907, 'epsilon': 0.7646935113620771, 'learning_rate': 'invscaling', 'momentum': 0.9488092614228859, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.07580426311938915}</t>
+          <t>{'beta_1': 0.32472218177934414, 'beta_2': 0.03838700104626199, 'epsilon': 0.6336397838993777, 'learning_rate': 'adaptive', 'momentum': 0.10204481074802807, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.16130951788499626}</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>0.9177050130396986</v>
+        <v>0.7977397855694002</v>
       </c>
     </row>
     <row r="19">
@@ -1116,11 +1116,11 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.36329678066331156, 'beta_2': 0.06113624965643826, 'epsilon': 0.3826067126653493, 'learning_rate': 'adaptive', 'momentum': 0.3060579219477887, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.9767110996421522}</t>
+          <t>{'beta_1': 0.04307512681418265, 'beta_2': 0.39381368275498735, 'epsilon': 0.8988351273012174, 'learning_rate': 'invscaling', 'momentum': 0.28533602462541374, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.8274282541238485}</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>0.9046653144016227</v>
+        <v>0.9223413503332367</v>
       </c>
     </row>
     <row r="20">
@@ -1152,7 +1152,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.7278521289720954, 'beta_2': 0.6070971084472071, 'epsilon': 0.34189906689640803, 'learning_rate': 'invscaling', 'momentum': 0.1103371248730024, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.6257109065192588}</t>
+          <t>{'beta_1': 0.3589121456430256, 'beta_2': 0.3990994114057741, 'epsilon': 0.30152904505158906, 'learning_rate': 'constant', 'momentum': 0.23223414217094274, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.9528706723868426}</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1190,11 +1190,11 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>{'beta_1': 0.45135521106639614, 'beta_2': 0.7990301009575822, 'epsilon': 0.9595618757212115, 'learning_rate': 'constant', 'momentum': 0.07799281787582457, 'nesterovs_momentum': True, 'solver': 'lbfgs', 'validation_fraction': 0.06659633223555117}</t>
+          <t>{'beta_1': 0.8405658295134588, 'beta_2': 0.20948245257676695, 'epsilon': 0.8731547940405725, 'learning_rate': 'constant', 'momentum': 0.27996546408812184, 'nesterovs_momentum': False, 'solver': 'lbfgs', 'validation_fraction': 0.25232305138669897}</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>0.8133874239350912</v>
+        <v>0.7977397855694002</v>
       </c>
     </row>
   </sheetData>
